--- a/files/teaching/주차별강의.xlsx
+++ b/files/teaching/주차별강의.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunta\OneDrive\Documents\GitHub\byungjunkim.github.io\files\teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B70A12-4EB2-44DD-9E7A-EC29A013D769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D729E-49FF-4DDF-A475-5E940A7AF08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8290" activeTab="6" xr2:uid="{699C5276-37CF-43D8-8422-64C47D41A328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8290" activeTab="1" xr2:uid="{699C5276-37CF-43D8-8422-64C47D41A328}"/>
   </bookViews>
   <sheets>
     <sheet name="한국어인공지능데이터과학" sheetId="1" r:id="rId1"/>
-    <sheet name="인공지능사회의이해" sheetId="2" r:id="rId2"/>
-    <sheet name="가상현실과증강현실" sheetId="3" r:id="rId3"/>
-    <sheet name="중국데이터베이스설계" sheetId="4" r:id="rId4"/>
-    <sheet name="한국현대문학데이터분석" sheetId="5" r:id="rId5"/>
-    <sheet name="유학대" sheetId="6" r:id="rId6"/>
-    <sheet name="DH겨울학교" sheetId="7" r:id="rId7"/>
+    <sheet name="중국데이터베이스설계" sheetId="4" r:id="rId2"/>
+    <sheet name="유학대" sheetId="6" r:id="rId3"/>
+    <sheet name="DH겨울학교" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Week</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,27 +105,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오리엔테이션 / 강의 기본 계획 소개_x000B_인공지능의 기본 개념 (1) + 과제(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공지능 기본 개념 (2) + 과제(1) 리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계학습과 딥러닝 - 지도학습</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계학습과 딥러닝 – 비지도학습 + 과제(2) 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계학습과 딥러닝 – 강화학습, 딥러닝(1) + 과제(2) 리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lecture / Discussion</t>
+    <t>Introduction to Designing and Building Chinese Cultural Data</t>
+  </si>
+  <si>
+    <t>Advanced Introduction to Chinese Cultural Data</t>
+  </si>
+  <si>
+    <t>Introduction to Natural Language Processing and Regular Expressions</t>
+  </si>
+  <si>
+    <t>Extensible Markup Language (XML) Theory and Practice (1)</t>
+  </si>
+  <si>
+    <t>Extensible Markup Language (XML) Theory and Practice (2)</t>
+  </si>
+  <si>
+    <t>Data Crawling Theory and Practice (1)</t>
+  </si>
+  <si>
+    <t>Data Crawling Theory and Practice (2)</t>
+  </si>
+  <si>
+    <t>Team Project Proposal</t>
+  </si>
+  <si>
+    <t>Relational Database (RDB) Theory and Practice (1)</t>
+  </si>
+  <si>
+    <t>Relational Database (RDB) Theory and Practice (2)</t>
+  </si>
+  <si>
+    <t>Labeled Data Theory and Practice</t>
+  </si>
+  <si>
+    <t>Resource Description Framework (RDF) theory and practice</t>
+  </si>
+  <si>
+    <t>Supplementary labs and project progress checks</t>
+  </si>
+  <si>
+    <t>(Team Project) Chinese Culture Design and Construction Final Presentation (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Team Project) Chinese Culture Design and Construction Final Presentation (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Team Project) Chinese Culture Design and Construction Final Presentation (1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +550,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -731,18 +755,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045B2343-AD3A-4055-BC38-D8D801338503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6087F6-38C1-4485-B7CC-1F2541613335}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.58203125" customWidth="1"/>
-    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -760,10 +783,10 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -771,90 +794,165 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>11</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>12</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>13</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>14</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28429FC9-082C-481F-B01F-73FF42F1798E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274BA29B-5851-44FB-A55A-98F8EE401C5B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -878,22 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6087F6-38C1-4485-B7CC-1F2541613335}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244F73B2-73AE-4FE7-9514-36101A6E0B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C655597-4E01-40C9-90E9-54A1E9DA46B7}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -903,30 +986,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274BA29B-5851-44FB-A55A-98F8EE401C5B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C655597-4E01-40C9-90E9-54A1E9DA46B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/files/teaching/주차별강의.xlsx
+++ b/files/teaching/주차별강의.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunta\OneDrive\Documents\GitHub\byungjunkim.github.io\files\teaching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D729E-49FF-4DDF-A475-5E940A7AF08F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573D3380-3C40-4B54-9028-E4F64FB3B989}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8290" activeTab="1" xr2:uid="{699C5276-37CF-43D8-8422-64C47D41A328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8290" activeTab="3" xr2:uid="{699C5276-37CF-43D8-8422-64C47D41A328}"/>
   </bookViews>
   <sheets>
     <sheet name="한국어인공지능데이터과학" sheetId="1" r:id="rId1"/>
     <sheet name="중국데이터베이스설계" sheetId="4" r:id="rId2"/>
-    <sheet name="유학대" sheetId="6" r:id="rId3"/>
+    <sheet name="유교의수양과자기실현" sheetId="6" r:id="rId3"/>
     <sheet name="DH겨울학교" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>Week</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>(Team Project) Chinese Culture Design and Construction Final Presentation (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why should digital humanities and Confucianism meet? How can they meet?</t>
+  </si>
+  <si>
+    <t>Examples of Confucian Research Using Data (1) / Starting with a problem and finding a specific research topic</t>
+  </si>
+  <si>
+    <t>Confucian Research Using Data (2) / Weaving analysis into meaningful research, linking data to further research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confucian Digital Content Examples / Popular content we can try out </t>
+  </si>
+  <si>
+    <t>Digital Humanities Research Case (1) / Data Collection and Preprocessing</t>
+  </si>
+  <si>
+    <t>Digital Humanities Research Case (2) / Natural Language Processing and Machine Learning</t>
+  </si>
+  <si>
+    <t>Interpreting results and deriving insights in data-driven humanities research / Machine learning and network analysis</t>
+  </si>
+  <si>
+    <t>Presentation of semester-long group work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midterm Presentation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invited Lecture 2 / Topic Development and Practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplemental Lecture and Discussion / Practice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6087F6-38C1-4485-B7CC-1F2541613335}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -964,14 +1000,198 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274BA29B-5851-44FB-A55A-98F8EE401C5B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="99.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -979,7 +1199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C655597-4E01-40C9-90E9-54A1E9DA46B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
